--- a/Tables_Figures/output/table13_PROP_association_proportions.xlsx
+++ b/Tables_Figures/output/table13_PROP_association_proportions.xlsx
@@ -86,7 +86,7 @@
     <t>SD in parens.</t>
   </si>
   <si>
-    <t>0.00288311 **</t>
+    <t>2.874564e-07 ***</t>
   </si>
   <si>
     <t>9.72584e-07 ***</t>

--- a/Tables_Figures/output/table13_PROP_association_proportions.xlsx
+++ b/Tables_Figures/output/table13_PROP_association_proportions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Local.Noun.Number</t>
   </si>
@@ -38,18 +38,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Singular</t>
   </si>
   <si>
@@ -62,46 +50,28 @@
     <t>Note: Scale was 1(not linked) to 7(tighly linked).</t>
   </si>
   <si>
+    <t>4.64 (0.42)</t>
+  </si>
+  <si>
+    <t>4.62 (0.35)</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>SD in parens.</t>
+  </si>
+  <si>
+    <t>4.1 (0.76)</t>
+  </si>
+  <si>
+    <t>4.22 (0.72)</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Att. vs Assoc pval</t>
-  </si>
-  <si>
-    <t>Assoc. vs Unrel pval</t>
-  </si>
-  <si>
-    <t>Att. vs Unrel pval</t>
-  </si>
-  <si>
-    <t>4.64 (0.42)</t>
-  </si>
-  <si>
-    <t>4.62 (0.35)</t>
-  </si>
-  <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>SD in parens.</t>
-  </si>
-  <si>
-    <t>2.874564e-07 ***</t>
-  </si>
-  <si>
-    <t>9.72584e-07 ***</t>
-  </si>
-  <si>
-    <t>4.54162e-10 ***</t>
-  </si>
-  <si>
-    <t>4.1 (0.76)</t>
-  </si>
-  <si>
-    <t>4.22 (0.72)</t>
-  </si>
-  <si>
-    <t>4.16</t>
   </si>
   <si>
     <t>2.88 (0.88)</t>
@@ -181,16 +151,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -198,16 +168,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -215,16 +185,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -232,84 +202,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table13_PROP_association_proportions.xlsx
+++ b/Tables_Figures/output/table13_PROP_association_proportions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Local.Noun.Number</t>
   </si>
@@ -24,18 +24,6 @@
   </si>
   <si>
     <t>Unrelated</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Singular</t>
@@ -132,17 +120,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -159,9 +146,6 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -175,9 +159,6 @@
       </c>
       <c r="D3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -193,9 +174,6 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -208,10 +186,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
